--- a/files/TestLogin.xlsx
+++ b/files/TestLogin.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lex\IdeaProjects\javapart-alexey-usatenko\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Kolya</t>
   </si>
@@ -35,19 +40,96 @@
   </si>
   <si>
     <t>addressAddedRef</t>
+  </si>
+  <si>
+    <t>Петя</t>
+  </si>
+  <si>
+    <t>Самойлов</t>
+  </si>
+  <si>
+    <t>Молочная 4А</t>
+  </si>
+  <si>
+    <t>Харьковская обл</t>
+  </si>
+  <si>
+    <t>Украина</t>
+  </si>
+  <si>
+    <t>Аня</t>
+  </si>
+  <si>
+    <t>Бабенко</t>
+  </si>
+  <si>
+    <t>Бесп</t>
+  </si>
+  <si>
+    <t>Тернополь</t>
+  </si>
+  <si>
+    <t>Тернопольск</t>
+  </si>
+  <si>
+    <t>Вованчик</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>Пацанская 34</t>
+  </si>
+  <si>
+    <t>Львов</t>
+  </si>
+  <si>
+    <t>Львовская</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Ковальчук</t>
+  </si>
+  <si>
+    <t>Пушкинская</t>
+  </si>
+  <si>
+    <t>Гольма</t>
+  </si>
+  <si>
+    <t>Донецкая</t>
+  </si>
+  <si>
+    <t>Какой то адрес</t>
+  </si>
+  <si>
+    <t>RefAddress</t>
+  </si>
+  <si>
+    <t>OlegAddress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="&quot;Courier New&quot;"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,20 +152,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -106,39 +193,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -217,230 +304,316 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2">
+        <v>500001</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>19556456465</v>
+      </c>
+      <c r="I1" s="2">
+        <v>16565</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>58648</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>380996862451</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5663255</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45466</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3806725222</v>
+      </c>
+      <c r="I3" s="2">
+        <v>212121</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>38067776696</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5586941</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>61033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>3809353613437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>93234567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2">
+        <v>84650</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2">
+        <v>38066447788</v>
+      </c>
+      <c r="I5" s="2">
+        <v>55854</v>
+      </c>
+      <c r="J5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
